--- a/data/Output/xlsx/nsga3/results_spring_nsga3.xlsx
+++ b/data/Output/xlsx/nsga3/results_spring_nsga3.xlsx
@@ -160,7 +160,7 @@
     <t>Li-ion</t>
   </si>
   <si>
-    <t>20-90</t>
+    <t>10-90</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.262844419273713</v>
+        <v>-0.2418480976031201</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2200496601740597</v>
+        <v>0.009761111475379267</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-2.422990968838946</v>
+        <v>-0.1074806701903839</v>
       </c>
       <c r="T2">
         <v>-0</v>
       </c>
       <c r="U2">
-        <v>2.422990968838946</v>
+        <v>0.1074806701903839</v>
       </c>
       <c r="V2">
         <v>2.434141304347826</v>
@@ -674,7 +674,7 @@
         <v>90.94428373531224</v>
       </c>
       <c r="C3">
-        <v>47.88504515580527</v>
+        <v>59.46259664904808</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.264602459452222</v>
+        <v>-0.2542232833095001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2214615501701095</v>
+        <v>0.005284157352725337</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-2.435134360007274</v>
+        <v>-0.05810323789128466</v>
       </c>
       <c r="T3">
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>2.435134360007274</v>
+        <v>0.05810323789128466</v>
       </c>
       <c r="V3">
         <v>2.445684782608696</v>
@@ -745,28 +745,28 @@
         <v>116.1907039918913</v>
       </c>
       <c r="C4">
-        <v>35.70937335576889</v>
+        <v>59.17208045959165</v>
       </c>
       <c r="D4">
-        <v>-0.7082626284715547</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.03541313142357774</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.419100754423897</v>
+        <v>0.2821974346689356</v>
       </c>
       <c r="H4">
-        <v>0.08229353341325726</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2827630964823921</v>
+        <v>0.2600090188400153</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -790,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.7082626284715547</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-2.433612042682224</v>
+        <v>-2.237778151840451</v>
       </c>
       <c r="T4">
         <v>-0</v>
       </c>
       <c r="U4">
-        <v>2.433612042682224</v>
+        <v>2.237778151840451</v>
       </c>
       <c r="V4">
         <v>2.451603260869565</v>
@@ -816,19 +816,19 @@
         <v>87.04494195136807</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>47.9831897003894</v>
       </c>
       <c r="D5">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.4785444298630079</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.251898238279558</v>
+        <v>-0.2411260612005847</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.004606352597144954</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-0</v>
+        <v>-0.05291924486225195</v>
       </c>
       <c r="T5">
         <v>-0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.05291924486225195</v>
       </c>
       <c r="V5">
         <v>2.414282608695652</v>
@@ -887,7 +887,7 @@
         <v>94.62347684936049</v>
       </c>
       <c r="C6">
-        <v>67.8544429863008</v>
+        <v>47.71859347607815</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1955179097146025</v>
+        <v>-0.2522221190304257</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1974968056848933</v>
+        <v>0.01093846037446485</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
@@ -935,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-2.087186100752839</v>
+        <v>-0.1155998568080388</v>
       </c>
       <c r="T6">
         <v>-0</v>
       </c>
       <c r="U6">
-        <v>2.087186100752839</v>
+        <v>0.1155998568080388</v>
       </c>
       <c r="V6">
         <v>2.452478260869565</v>
@@ -958,7 +958,7 @@
         <v>107.1891068233885</v>
       </c>
       <c r="C7">
-        <v>57.41851248253658</v>
+        <v>47.14059419203795</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2648916645883085</v>
+        <v>0.259027160754271</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2635208760331795</v>
+        <v>0.2610773327689971</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-2.35203542366954</v>
+        <v>-2.329238860319045</v>
       </c>
       <c r="T7">
         <v>-0.1064315217391305</v>
       </c>
       <c r="U7">
-        <v>2.458466945408671</v>
+        <v>2.435670382058176</v>
       </c>
       <c r="V7">
         <v>2.857554347826087</v>
@@ -1029,7 +1029,7 @@
         <v>118.5859393159916</v>
       </c>
       <c r="C8">
-        <v>45.65833536418889</v>
+        <v>35.49439989044273</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5553427532200321</v>
+        <v>0.4628045001432795</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4667910592943283</v>
+        <v>0.4282334538456813</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-3.266948385048247</v>
+        <v>-2.941803551933556</v>
       </c>
       <c r="T8">
         <v>-0.6693619565217391</v>
       </c>
       <c r="U8">
-        <v>3.936310341569986</v>
+        <v>3.611165508455295</v>
       </c>
       <c r="V8">
         <v>3.970086956521739</v>
@@ -1100,7 +1100,7 @@
         <v>123.7883475363885</v>
       </c>
       <c r="C9">
-        <v>29.32359343894765</v>
+        <v>20.78538213077495</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5600273378643942</v>
+        <v>0.5719138465692855</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4732451961101684</v>
+        <v>0.4781979080705398</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-1.725258061768804</v>
+        <v>-1.765267578487779</v>
       </c>
       <c r="T9">
         <v>-2.097760869565218</v>
       </c>
       <c r="U9">
-        <v>3.823018931334022</v>
+        <v>3.863028448052997</v>
       </c>
       <c r="V9">
         <v>3.875978260869565</v>
@@ -1171,28 +1171,28 @@
         <v>125.6227413643548</v>
       </c>
       <c r="C10">
-        <v>20.69730313010362</v>
+        <v>11.95904423833605</v>
       </c>
       <c r="D10">
-        <v>-0.00166696254576737</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>8.334812728836849E-05</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5598620541389869</v>
+        <v>0.5555690743370799</v>
       </c>
       <c r="H10">
-        <v>0.0002094084047510008</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4796385735128484</v>
+        <v>0.4779370854307001</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
@@ -1216,16 +1216,16 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.00166696254576737</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>-0.1377936634749575</v>
+        <v>-0.1242492362186427</v>
       </c>
       <c r="T10">
         <v>-3.680293478260869</v>
       </c>
       <c r="U10">
-        <v>3.818087141735826</v>
+        <v>3.804542714479512</v>
       </c>
       <c r="V10">
         <v>3.923652173913044</v>
@@ -1242,28 +1242,28 @@
         <v>67.10817183722682</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>11.33779805724284</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2017085908611688</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.01008542954305844</v>
       </c>
       <c r="G11">
-        <v>0.3848036774455439</v>
+        <v>0.3721991536771514</v>
       </c>
       <c r="H11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.06801788845822697</v>
+        <v>-0.05381604296155385</v>
       </c>
       <c r="J11">
-        <v>0.2649091074348471</v>
+        <v>0.2655746581549641</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1278,25 +1278,25 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.2017085908611688</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>-1.013555973826954</v>
+        <v>-0.801929802112424</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>-0</v>
       </c>
       <c r="T11">
-        <v>-3.947494026173047</v>
+        <v>-3.957411607026407</v>
       </c>
       <c r="U11">
-        <v>3.947494026173047</v>
+        <v>3.957411607026407</v>
       </c>
       <c r="V11">
         <v>3.961217391304348</v>
@@ -1313,19 +1313,19 @@
         <v>54.67950281451348</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>12.34634101154868</v>
       </c>
       <c r="D12">
-        <v>4.463725513507107</v>
+        <v>6.668061698064093</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.2231862756753554</v>
+        <v>0.3334030849032047</v>
       </c>
       <c r="G12">
-        <v>0.03902821540158261</v>
+        <v>-0.1233853055110937</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3168127364722464</v>
+        <v>0.3020001423193006</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.0003435818432615534</v>
+        <v>0.2712420609898967</v>
       </c>
       <c r="P12">
-        <v>4.463381931663846</v>
+        <v>6.396819637074197</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>-0</v>
       </c>
       <c r="T12">
-        <v>-5.793994461634999</v>
+        <v>-5.523095982488364</v>
       </c>
       <c r="U12">
-        <v>5.793994461634999</v>
+        <v>5.523095982488364</v>
       </c>
       <c r="V12">
         <v>6.529804347826087</v>
@@ -1384,19 +1384,19 @@
         <v>48.16905897653096</v>
       </c>
       <c r="C13">
-        <v>42.31862756753554</v>
+        <v>45.68664950186916</v>
       </c>
       <c r="D13">
-        <v>9.536274486492893</v>
+        <v>8.862670099626168</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.4768137243246446</v>
+        <v>0.4431335049813084</v>
       </c>
       <c r="G13">
-        <v>-0.2043148890415896</v>
+        <v>-0.1644529653420521</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2728989314466448</v>
+        <v>0.2736703117584261</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4207639750007175</v>
+        <v>0.4047499542128685</v>
       </c>
       <c r="P13">
-        <v>9.115510511492175</v>
+        <v>8.457920145413301</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>-0</v>
       </c>
       <c r="T13">
-        <v>-5.66544037282537</v>
+        <v>-5.681454393613219</v>
       </c>
       <c r="U13">
-        <v>5.66544037282537</v>
+        <v>5.681454393613219</v>
       </c>
       <c r="V13">
         <v>5.750054347826087</v>
@@ -1455,7 +1455,7 @@
         <v>76.92059017480044</v>
       </c>
       <c r="C14">
-        <v>90</v>
+        <v>89.99999999999999</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5439657053291385</v>
+        <v>0.5468370481751113</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4598200064212669</v>
+        <v>0.4610163992737555</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-0.0719218121515155</v>
+        <v>-0.08747542204673131</v>
       </c>
       <c r="T14">
         <v>-5.905931521739131</v>
       </c>
       <c r="U14">
-        <v>5.977853333890646</v>
+        <v>5.993406943785862</v>
       </c>
       <c r="V14">
         <v>6.062554347826087</v>
@@ -1526,7 +1526,7 @@
         <v>77.74323370932761</v>
       </c>
       <c r="C15">
-        <v>89.64039093924242</v>
+        <v>89.56262288976633</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5255141162288199</v>
+        <v>0.459373498200677</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4462072647101318</v>
+        <v>0.4186486738650722</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -1574,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-0.4494746763119704</v>
+        <v>-0.09499249786158881</v>
       </c>
       <c r="T15">
         <v>-5.290025000000001</v>
       </c>
       <c r="U15">
-        <v>5.739499676311971</v>
+        <v>5.38501749786159</v>
       </c>
       <c r="V15">
         <v>5.845989130434782</v>
@@ -1597,28 +1597,28 @@
         <v>117.7594222185925</v>
       </c>
       <c r="C16">
-        <v>87.39301755768257</v>
+        <v>89.08766040045839</v>
       </c>
       <c r="D16">
-        <v>-1.930871450080508</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.09654357250402541</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.9345709173933008</v>
+        <v>0.6066042567364209</v>
       </c>
       <c r="H16">
-        <v>0.2273783063398565</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5931626033666909</v>
+        <v>0.5512507890679311</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -1642,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1.930871450080508</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-0.6191571475273738</v>
+        <v>-0.2632466521365222</v>
       </c>
       <c r="T16">
         <v>-4.417914130434784</v>
       </c>
       <c r="U16">
-        <v>5.037071277962157</v>
+        <v>4.681160782571306</v>
       </c>
       <c r="V16">
         <v>5.069641304347826</v>
@@ -1668,7 +1668,7 @@
         <v>113.6104330778589</v>
       </c>
       <c r="C17">
-        <v>74.64287456964315</v>
+        <v>87.77142713977578</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5355322860930408</v>
+        <v>0.3461083121235817</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4469880525825005</v>
+        <v>0.3680613967618926</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
@@ -1716,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-0.739114386645237</v>
+        <v>-0.04440128959614498</v>
       </c>
       <c r="T17">
         <v>-3.195278260869565</v>
       </c>
       <c r="U17">
-        <v>3.934392647514802</v>
+        <v>3.23967955046571</v>
       </c>
       <c r="V17">
         <v>3.940652173913044</v>
@@ -1739,28 +1739,28 @@
         <v>139.023119547856</v>
       </c>
       <c r="C18">
-        <v>70.94730263641698</v>
+        <v>87.54942069179505</v>
       </c>
       <c r="D18">
-        <v>-4.034022238662421</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.201701111933121</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1.17913859095722</v>
+        <v>0.5940961954922217</v>
       </c>
       <c r="H18">
-        <v>0.5608223559442753</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5169635273361735</v>
+        <v>0.5068718442025389</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -1784,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>4.034022238662421</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>-2.061283787823982</v>
+        <v>-1.988693824611708</v>
       </c>
       <c r="T18">
         <v>-1.657259782608696</v>
       </c>
       <c r="U18">
-        <v>3.718543570432678</v>
+        <v>3.645953607220404</v>
       </c>
       <c r="V18">
         <v>3.730771739130435</v>
@@ -1810,19 +1810,19 @@
         <v>65.23937164610012</v>
       </c>
       <c r="C19">
-        <v>40.47077250398496</v>
+        <v>77.60595156873651</v>
       </c>
       <c r="D19">
-        <v>9.897460575900718</v>
+        <v>2.478809686252696</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.4948730287950359</v>
+        <v>0.1239404843126348</v>
       </c>
       <c r="G19">
-        <v>-1.090461729072875</v>
+        <v>-0.5064811476121653</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01040661889214387</v>
+        <v>0.01306898094031689</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.1432747355292645</v>
+        <v>0.1024656047697691</v>
       </c>
       <c r="P19">
-        <v>9.754185840371454</v>
+        <v>2.376344081482928</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>-0</v>
       </c>
       <c r="T19">
-        <v>-0.1595143949055181</v>
+        <v>-0.2003235256650135</v>
       </c>
       <c r="U19">
-        <v>0.1595143949055181</v>
+        <v>0.2003235256650135</v>
       </c>
       <c r="V19">
         <v>4.493826086956522</v>
@@ -1881,7 +1881,7 @@
         <v>122.1127597553482</v>
       </c>
       <c r="C20">
-        <v>89.95807538348855</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5122263359408505</v>
+        <v>0.4992742340799657</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5119156897897276</v>
+        <v>0.5065189806810256</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-4.159806688183994</v>
+        <v>-4.115612214817621</v>
       </c>
       <c r="T20">
         <v>-0.03234891304347826</v>
       </c>
       <c r="U20">
-        <v>4.192155601227472</v>
+        <v>4.147961127861099</v>
       </c>
       <c r="V20">
         <v>4.888728260869565</v>
@@ -1952,7 +1952,7 @@
         <v>86.56083745916285</v>
       </c>
       <c r="C21">
-        <v>69.15904194256858</v>
+        <v>69.4219389259119</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.1118982906766306</v>
+        <v>0.2700052091009895</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2401357443152282</v>
+        <v>0.3060136269920444</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
@@ -2000,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-2.774184623947498</v>
+        <v>-3.535243373037069</v>
       </c>
       <c r="T21">
         <v>-0</v>
       </c>
       <c r="U21">
-        <v>2.774184623947498</v>
+        <v>3.535243373037069</v>
       </c>
       <c r="V21">
         <v>4.471108695652174</v>
@@ -2023,7 +2023,7 @@
         <v>89.71526517400227</v>
       </c>
       <c r="C22">
-        <v>55.28811882283109</v>
+        <v>51.74572206072655</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-0.184868417876055</v>
+        <v>0.1554690429102683</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.106565981402833</v>
+        <v>0.2483732567304677</v>
       </c>
       <c r="K22" t="s">
         <v>47</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>-1.187824404198648</v>
+        <v>-2.7684614903467</v>
       </c>
       <c r="T22">
         <v>-0</v>
       </c>
       <c r="U22">
-        <v>1.187824404198648</v>
+        <v>2.7684614903467</v>
       </c>
       <c r="V22">
         <v>4.092826086956522</v>
@@ -2094,7 +2094,7 @@
         <v>90.19278809868813</v>
       </c>
       <c r="C23">
-        <v>49.34899680183785</v>
+        <v>37.90341460899305</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.3424039230566839</v>
+        <v>0.3088638089525244</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2936931838756944</v>
+        <v>0.2797181363322946</v>
       </c>
       <c r="K23" t="s">
         <v>47</v>
@@ -2142,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>-3.25628234880973</v>
+        <v>-3.101335951897058</v>
       </c>
       <c r="T23">
         <v>-0</v>
       </c>
       <c r="U23">
-        <v>3.25628234880973</v>
+        <v>3.101335951897058</v>
       </c>
       <c r="V23">
         <v>3.348934782608695</v>
@@ -2165,28 +2165,28 @@
         <v>112.6211585567256</v>
       </c>
       <c r="C24">
-        <v>33.06758505778919</v>
+        <v>22.39673484950776</v>
       </c>
       <c r="D24">
-        <v>-0.01093201507086849</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.0005466007535434248</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3418440369911187</v>
+        <v>0.2977757871666878</v>
       </c>
       <c r="H24">
-        <v>0.001231176202640795</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2931061375467143</v>
+        <v>0.2752573568709684</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0.01093201507086849</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>-2.602584996486971</v>
+        <v>-2.444099851204473</v>
       </c>
       <c r="T24">
         <v>-0</v>
       </c>
       <c r="U24">
-        <v>2.602584996486971</v>
+        <v>2.444099851204473</v>
       </c>
       <c r="V24">
         <v>2.684826086956522</v>
@@ -2236,7 +2236,7 @@
         <v>100.7519619575931</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>10.1762355934854</v>
       </c>
       <c r="D25">
         <v>0</v>
